--- a/data/trans_dic/P15_3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15_3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con familiares no convivientes con COVID-19</t>
+          <t>Población con familiares no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,77 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17,41%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25,79%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>4,41%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>15,91%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>24,68%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>38,89%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>4,39%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>3,55%</t>
-        </is>
-      </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,61</t>
+          <t>2,53; 13,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,99</t>
+          <t>1,39; 9,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,5; 16,16</t>
+          <t>9,44; 19,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,32; 28,59</t>
+          <t>17,95; 28,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,07; 43,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 7,63</t>
+          <t>1,67; 10,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 8,15</t>
+          <t>1,86; 9,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,31; 20,0</t>
+          <t>13,3; 22,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,27; 29,3</t>
+          <t>21,52; 30,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,0; 45,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,22</t>
+          <t>2,88; 9,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,78</t>
+          <t>2,37; 7,21</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>11,48; 16,89</t>
+          <t>12,71; 19,63</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>20,55; 27,6</t>
+          <t>21,28; 28,26</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>33,62; 42,37</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>25,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>28,99%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>48,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>45,58%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,97</t>
+          <t>5,04; 11,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 6,58</t>
+          <t>3,3; 8,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,13; 20,3</t>
+          <t>13,65; 20,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,89; 29,3</t>
+          <t>21,7; 29,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,3; 48,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,86</t>
+          <t>5,26; 12,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,44</t>
+          <t>3,38; 8,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,48; 20,14</t>
+          <t>14,09; 20,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,48; 34,05</t>
+          <t>25,32; 32,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,81; 52,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,18</t>
+          <t>5,94; 10,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,09</t>
+          <t>3,8; 7,46</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>15,27; 19,45</t>
+          <t>14,93; 19,71</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>25,01; 30,3</t>
+          <t>24,76; 30,07</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>42,42; 48,86</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>36,19%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>46,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>25,07%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>33,56%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 11,59</t>
+          <t>5,73; 14,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 13,86</t>
+          <t>5,0; 11,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,79; 28,86</t>
+          <t>21,07; 30,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,52; 35,47</t>
+          <t>26,86; 36,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,95; 47,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,73; 14,77</t>
+          <t>12,29; 21,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,68; 14,03</t>
+          <t>8,6; 15,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,7; 28,23</t>
+          <t>20,97; 28,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,39; 40,34</t>
+          <t>32,44; 40,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>40,24; 52,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 11,98</t>
+          <t>10,29; 17,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 12,34</t>
+          <t>7,72; 12,82</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>21,0; 27,3</t>
+          <t>22,0; 28,28</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>30,42; 36,47</t>
+          <t>30,77; 37,24</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>38,63; 48,71</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>40,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>42,77%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,83 +1274,261 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 7,73</t>
+          <t>3,55; 6,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,43</t>
+          <t>2,78; 8,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,03; 20,39</t>
+          <t>11,85; 20,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,03; 29,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,75; 44,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,11; 8,67</t>
+          <t>3,67; 6,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,71</t>
+          <t>2,42; 5,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,13; 21,07</t>
+          <t>13,01; 21,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,29; 33,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>41,42; 47,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 7,73</t>
+          <t>4,05; 6,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 6,97</t>
+          <t>2,91; 5,93</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>17,12; 20,04</t>
+          <t>13,13; 18,98</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>26,77; 30,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>40,33; 44,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,26%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18,23%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>26,86%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,16%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19,15%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30,57%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,73%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>18,7%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>28,75%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 7,55</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,08; 7,04</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16,24; 20,7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>24,43; 29,56</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 8,4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,96; 7,42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17,46; 21,22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28,4; 32,92</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,92; 7,62</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,8; 6,76</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>17,22; 20,16</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>27,11; 30,52</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1360,4 +1539,1461 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con familiares no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14745</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13876</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>71753</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>167883</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11477</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19653</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>111207</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>231784</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26222</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>33529</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>182960</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>399667</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5721; 30155</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4724; 33309</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>50064; 102144</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>130717; 206874</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4369; 26222</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7841; 38895</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>84965; 145417</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>193377; 275801</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14060; 46223</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18068; 54825</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>148568; 229448</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>346284; 459738</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>382.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>51730</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48752</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>206267</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>415875</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>56612</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>54115</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>213442</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>437192</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>108342</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>102868</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>419708</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>853067</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>32781; 73272</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30760; 77592</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>164688; 251382</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>351996; 477443</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>37613; 86748</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>33779; 83553</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>173762; 252178</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>381775; 489432</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>81085; 145587</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>73404; 144173</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>364305; 481001</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>775094; 941182</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>43855</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>56253</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>214257</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>341417</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>87503</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>92271</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>233826</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>422416</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>131358</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>148524</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>448083</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>763833</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26106; 66624</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35805; 83481</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>178178; 258036</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>293711; 397102</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>65346; 114375</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>66154; 122695</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>197498; 272015</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>377329; 473266</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>101608; 169648</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>114647; 190339</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>393261; 505457</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>694317; 840382</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>105541</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>65658</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>135538</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>102710</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>55341</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>126594</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>208251</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>120999</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>262133</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>75087; 135452</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>40481; 118206</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>101944; 180549</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>76683; 131940</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>33990; 83151</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>99259; 162272</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>170394; 254202</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>83156; 169641</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>213107; 308178</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>326.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>525.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>584.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>916.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>215871</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>184539</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>627815</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>925175</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>258301</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>221381</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>685069</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1091392</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>474173</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>405920</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1312884</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2016567</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>177590; 260225</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>140652; 242348</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>559197; 712694</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>841457; 1018009</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>216425; 302286</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>178241; 266862</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>624681; 759050</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1013889; 1175186</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>417013; 536908</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>338166; 475633</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1209037; 1415230</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1901457; 2140341</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>